--- a/DOM_Banner/output/dept_banner/Muhammad Husnain_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Muhammad Husnain_2022.xlsx
@@ -1978,17 +1978,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4363604455</t>
+          <t>https://openalex.org/S4386621754</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2666-6367</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2158,17 +2158,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4363604455</t>
+          <t>https://openalex.org/S4386621754</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2666-6367</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2331,17 +2331,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4363604455</t>
+          <t>https://openalex.org/S4386621754</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2666-6367</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Muhammad Husnain_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Muhammad Husnain_2022.xlsx
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2917403768", "https://openalex.org/W4381594543", "https://openalex.org/W2952260713", "https://openalex.org/W3142239825", "https://openalex.org/W4220818326", "https://openalex.org/W2936186479", "https://openalex.org/W3028773865", "https://openalex.org/W4387840655", "https://openalex.org/W2969241243", "https://openalex.org/W2916176185")</t>
+          <t>c("https://openalex.org/W2917403768", "https://openalex.org/W4381594543", "https://openalex.org/W2952260713", "https://openalex.org/W3142239825", "https://openalex.org/W4220818326", "https://openalex.org/W2936186479", "https://openalex.org/W2251648452", "https://openalex.org/W3028773865", "https://openalex.org/W2969241243", "https://openalex.org/W2916176185")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Muhammad Husnain_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Muhammad Husnain_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Multiple Myeloma and Amyloidosis Program, Columbia University Irving Medical Center, New York, New York.; Internal Medicine, Dow University of Health Sciences, Karachi, Pakistan.; The Knowledge Center, August C. Long Health Sciences Library, Columbia University Irving Medical Center, New York, New York.; Internal Medicine, University of Oklahoma Health Sciences Center, Oklahoma City, Oklahoma.; Internal Medicine, Dow University of Health Sciences, Karachi, Pakistan.; Division of Hematology/Oncology, University of Arizona, Tucson, Arizona; Department of Oncology, McMaster University, Hamilton, Ontario, Canada; Taussig Cancer Center, Cleveland Clinic, Cleveland, Ohio.; Taussig Cancer Center, Cleveland Clinic, Cleveland, Ohio.; Hematology Service, University Cancer Institute Toulouse-Oncopole, Toulouse, France.; Division of Medical Oncology, Department of Oncology, Mayo Clinic, Rochester, Minnesota.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223543763</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Impact of autologous transplantation on survival in patients with newly diagnosed multiple myeloma who have high‐risk cytogenetics: A meta‐analysis of randomized controlled trials</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-04-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cancer</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/cncr.34211</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35377484</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/cncr.34211</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Pediatrics, University of Arizona, Tucson, AZ, USA; Department of Immunobiology, University of Arizona, Tucson, AZ, USA; Department of Medicine, University of Arizona, Tucson, AZ, USA; Department of Pathology, University of Arizona, Tucson, AZ, USA; The University of Arizona Cancer Center, Tucson, AZ, USA; Banner University Medical Center, Tucson, AZ, USA. Electronic address: ekatsani@arizona.edu.; Banner University Medical Center, Tucson, Arizona; Department of Radiation Oncology, University of Arizona, Tucson, Arizona; Banner University Medical Center, Tucson, Arizona; Banner University Medical Center, Tucson, Arizona; Department of Pediatrics, University of Arizona, Tucson, Arizona; Banner University Medical Center, Tucson, Arizona; Department of Medicine, University of Arizona, Tucson, Arizona; Banner University Medical Center, Tucson, Arizona; Department of Medicine, University of Arizona, Tucson, Arizona; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, Arizona; Department of Pediatrics, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224231087</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Feasibility and Efficacy of Partially Replacing Post-Transplantation Cyclophosphamide with Bendamustine in Pediatric and Young Adult Patients Undergoing Haploidentical Bone Marrow Transplantation</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jtct.2022.04.015</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35460929</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jtct.2022.04.015</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>The University of Arizona, Tucson, AZ;; University of Arizona Department of Medicine, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281767517</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Role of anakinra in the management of icans after CAR T-cell therapy for lymphoma.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19506</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19506</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313411978</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Stercoral Colitis as a Cause of Altered Mental Status in a Patient With Cerebral Palsy</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-12-28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.33040</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36721554</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.33040</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Lehign Valley Health Network, Allentown, PA;; The University of Arizona, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282011465</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Tisagenlecleucel for secondary CNS lymphoma, a case series.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19507</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19507</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1Division of Hematology and Medical Oncology, Mayo Clinic, Phoenix, AZ; 2Banner MD Anderson Cancer Center, Gilbert, AZ; 3University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ; 4Mayo Clinic, Division of Hematology-Oncology and Blood and Marrow Transplantation Program, Jacksonville, FL; 5Division of Infectious Diseases, Mayo Clinic, Rochester, MN; 1Division of Hematology and Medical Oncology, Mayo Clinic, Phoenix, AZ; 6Division of Hematology/Oncology and Blood and Marrow Transplanation and Cellular Therapy, Mayo Clinic, Jacksonville, FL; 7Department of Quantitative Health Sciences, Mayo Clinic, Scottsdale, AZ; 8Division of Hematology, Mayo Clinic, Rochester, MN; 1Division of Hematology and Medical Oncology, Mayo Clinic, Phoenix, AZ; 9Division of Hematology/Oncology, Mayo Clinic, Phoenix, AZ; 1Division of Hematology and Medical Oncology, Mayo Clinic, Phoenix, AZ; 10Division of Hematology, Department of Internal Medicine, Mayo Clinic, Rochester, MN; 11Division of Infectious Diseases, Mayo Clinic, Phoenix, AZ; 12Division of Hematology-Oncology and Blood and Marrow Transplantation and Cellular Therapy Program, Mayo Clinic, Jacksonville, FL; 8Division of Hematology, Mayo Clinic, Rochester, MN; 1Division of Hematology and Medical Oncology, Mayo Clinic, Phoenix, AZ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310117864</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Low Incidence of Fungal Infections after Chimeric Antigen Receptor T-Cell Therapy for Non-Hodgkin Lymphoma in an Endemic Region for Coccidioidomycosis</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-159744</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-159744</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220793950</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Secondary Immune Thrombocytopenia Due to Mycoplasma pneumoniae Without Clinically Significant Evidence of Active Infection</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-03-27</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.23551</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35494983</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.23551</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220799954</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Chimeric Antigen Receptor T Cell Therapy Is Effective in Primary/Secondary CNS Large B Cell Lymphoma: A Systematic Review and Meta-Analysis</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(22)00789-8</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(22)00789-8</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220829815</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Icans after CAR T-Cell Therapy for Lymphoma</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(22)00410-9</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(22)00410-9</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220923605</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>A Multi-Center Collaborative Study of Outcomes of TP53-Mutated MDS/AML Patients Following Allogeneic HCT</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(22)00207-x</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(22)00207-x</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221118115</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>MDS/CCUS after CAR-T Cell Therapy: A Case Series</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(22)00422-5</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(22)00422-5</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Mayo Clinic, Phoenix, AZ;; University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; Mayo Clinic, Rochester, MN;; Mayo Clinic, Phoenix, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281685780</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Anti-CD19 chimeric antigenic receptor T cell as a second-line therapy for patients with relapsed/refractory diffuse large B-cell lymphoma.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19502</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19502</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294860781</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Awareness of Nephrolithiasis in Educated Community of Azad Kashmir Pakistan</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>International Journal of Natural Medicine and Health Sciences</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.52461/ijnms.v1i3.933</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.52461/ijnms.v1i3.933</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1University of Arizona, Tucson, AZ; 1University of Arizona, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 3Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 4Departments of Pediatrics, University of Arizona, Tucson, AZ; 5University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310106653</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Anti CD19 CAR-T Cell Therapy Can Clear Minimal Residual Disease in Bone Marrow of Patients with Relapsed or Refractory B Cell Non-Hodgkin's Lymphomas</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-170620</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-170620</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1University of Arizona Department of Medicine, Tucson,; 2University of Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 3Department of Internal Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; 4Department of Hematology, University of Arizona, Tucson, AZ; 5Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 6University of Arizona Cancer Center, University of Arizona College of Medicine, Tucson, AZ; 7Departments of Pediatrics, University of Arizona, Tucson, AZ; 8University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310108057</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome (ICANS) after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1Division of Hematology and Oncology, Department of Internal Medicine, Mayo Clinic, Phoenix, AZ; 2Department of Internal Medicine, Dow University of Health Sciences, Karachi, Pakistan; 3Creighton University, Omaha, NE; 4Nishtar Medical University, Multan, Pakistan; 5Mayo Clinic, Phoenix, AZ; 6Mayo Clinic, Rochester, MN; 7University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ; 8Hematology and Medical Oncology, Columbia University, Irving Medical Center, New York, NY; 9Dana-Farber Cancer Institute, Harvard Medical School, Boston, MA; 10McMaster University, Hamilton, Canada</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310109030</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Post Autologous Stem Cell Transplant Maintenance in Patients with Newly Diagnosed Multiple Myeloma: A Network Meta-Analysis</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-170869</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-170869</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,75 +1844,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1Hematology/Medical Oncology, University of Arizona, Tucson, AZ; 2University of Arizona, Tucson, AZ; 3Department of Internal Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; 4University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310112805</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Anti-CD 19 CAR-T Cell Therapy with Tisagenlecleucel for Ritcher Syndrome</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-167450</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-167450</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1Rawalpindi Medical University, Rawalpindi, Pakistan; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 2Department of Internal Medicine, Northwell Health, New York, NY; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 3Department of Medicine, King Edward Medical University, Lahore, Pakistan; 4Internal Medicine, Albany Medical Center, Albany, NY; 5Department of Stem Cell Transplantation and Cellular Therapy, The University of Texas MD Anderson Cancer Center, Houston, TX; 6The University of Arizona, Tucson, AZ; 7University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ; 8Section of Hematology and Oncology, Boston Medical Center, Boston, MA; 9Leukemia Service, Department of Medicine, Roswell Park Comprehensive Cancer Center, Buffalo, NY; 10Department of Hematology and Medical Oncology, Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310124913</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>R-CHOP Versus R-EPOCH in Primary Mediastinal Large B-Cell Lymphoma: A Systematic Review and Meta-Analysis</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168487</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168487</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
